--- a/static/execl/101.xlsx
+++ b/static/execl/101.xlsx
@@ -16,37 +16,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>1601206010</t>
-  </si>
-  <si>
-    <t>1601206020</t>
+    <t>1701206000</t>
+  </si>
+  <si>
+    <t>1801206000</t>
   </si>
   <si>
     <t>1601206000</t>
   </si>
   <si>
-    <t>1601206011</t>
-  </si>
-  <si>
-    <t>1601206021</t>
+    <t>1701206001</t>
+  </si>
+  <si>
+    <t>1801206001</t>
   </si>
   <si>
     <t>1601206001</t>
   </si>
   <si>
-    <t>1601206012</t>
-  </si>
-  <si>
-    <t>1601206022</t>
+    <t>1701206002</t>
+  </si>
+  <si>
+    <t>1801206002</t>
   </si>
   <si>
     <t>1601206002</t>
   </si>
   <si>
-    <t>1601206013</t>
-  </si>
-  <si>
-    <t>1601206023</t>
+    <t>1701206003</t>
+  </si>
+  <si>
+    <t>1801206003</t>
   </si>
   <si>
     <t>1601206003</t>
